--- a/RL-002-QueueBlocking/results/analyze_estimates_20210627_215708_results (ANALYSIS OF VARIANCE AND BIAS).xlsx
+++ b/RL-002-QueueBlocking/results/analyze_estimates_20210627_215708_results (ANALYSIS OF VARIANCE AND BIAS).xlsx
@@ -15,10 +15,11 @@
   <definedNames>
     <definedName name="_AMO_UniqueIdentifier" hidden="1">"'3edd604e-2c72-4cf7-8df1-022d0af13fbb'"</definedName>
   </definedNames>
-  <calcPr calcId="0"/>
+  <calcPr calcId="145621"/>
   <pivotCaches>
-    <pivotCache cacheId="12" r:id="rId5"/>
+    <pivotCache cacheId="2" r:id="rId5"/>
   </pivotCaches>
+  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
@@ -57,7 +58,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="51">
   <si>
     <t>rhos</t>
   </si>
@@ -194,9 +195,6 @@
     <t>Var(D)/E(D)^2</t>
   </si>
   <si>
-    <t>Var(I/D)</t>
-  </si>
-  <si>
     <t>log(Var(I/D))</t>
   </si>
   <si>
@@ -208,15 +206,21 @@
   <si>
     <t>Variance of FV estimator approximated by E(I)^2/E(D)^2</t>
   </si>
+  <si>
+    <t>Var(I/D) obs.</t>
+  </si>
+  <si>
+    <t>Var(I/D) appr.</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="3">
-    <numFmt numFmtId="167" formatCode="0.00000%"/>
-    <numFmt numFmtId="173" formatCode="0.00000000000%"/>
-    <numFmt numFmtId="178" formatCode="0.0000"/>
+    <numFmt numFmtId="164" formatCode="0.00000%"/>
+    <numFmt numFmtId="165" formatCode="0.00000000000%"/>
+    <numFmt numFmtId="166" formatCode="0.0000"/>
   </numFmts>
   <fonts count="21" x14ac:knownFonts="1">
     <font>
@@ -727,12 +731,12 @@
   <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="173" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
@@ -983,8 +987,8 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="456636288"/>
-        <c:axId val="456621056"/>
+        <c:axId val="474306048"/>
+        <c:axId val="474307968"/>
       </c:scatterChart>
       <c:scatterChart>
         <c:scatterStyle val="lineMarker"/>
@@ -1160,11 +1164,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="466707200"/>
-        <c:axId val="467572992"/>
+        <c:axId val="474319488"/>
+        <c:axId val="474317952"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="456636288"/>
+        <c:axId val="474306048"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1186,19 +1190,18 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="456621056"/>
+        <c:crossAx val="474307968"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="456621056"/>
+        <c:axId val="474307968"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1223,12 +1226,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="456636288"/>
+        <c:crossAx val="474306048"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="467572992"/>
+        <c:axId val="474317952"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1252,12 +1255,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="466707200"/>
+        <c:crossAx val="474319488"/>
         <c:crosses val="max"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="466707200"/>
+        <c:axId val="474319488"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1267,13 +1270,13 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="467572992"/>
+        <c:crossAx val="474317952"/>
+        <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:txPr>
         <a:bodyPr/>
@@ -1317,7 +1320,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -1493,11 +1495,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="466915712"/>
-        <c:axId val="458697344"/>
+        <c:axId val="474331392"/>
+        <c:axId val="474345472"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="466915712"/>
+        <c:axId val="474331392"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1507,12 +1509,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="458697344"/>
+        <c:crossAx val="474345472"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="458697344"/>
+        <c:axId val="474345472"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1523,14 +1525,13 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="466915712"/>
+        <c:crossAx val="474331392"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -1611,6 +1612,9 @@
       <c:pivotFmt>
         <c:idx val="1"/>
       </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="2"/>
+      </c:pivotFmt>
     </c:pivotFmts>
     <c:plotArea>
       <c:layout/>
@@ -1741,8 +1745,8 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="468387328"/>
-        <c:axId val="468388864"/>
+        <c:axId val="475249664"/>
+        <c:axId val="475260032"/>
       </c:lineChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -1814,11 +1818,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="479882240"/>
-        <c:axId val="479879552"/>
+        <c:axId val="475267456"/>
+        <c:axId val="475261568"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="468387328"/>
+        <c:axId val="475249664"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1840,13 +1844,12 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="468388864"/>
+        <c:crossAx val="475260032"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1854,7 +1857,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="468388864"/>
+        <c:axId val="475260032"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1878,12 +1881,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="468387328"/>
+        <c:crossAx val="475249664"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="479879552"/>
+        <c:axId val="475261568"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1907,12 +1910,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="479882240"/>
+        <c:crossAx val="475267456"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="479882240"/>
+        <c:axId val="475267456"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1921,7 +1924,8 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="479879552"/>
+        <c:crossAx val="475261568"/>
+        <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
@@ -1936,7 +1940,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -2211,11 +2214,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="486263808"/>
-        <c:axId val="486269696"/>
+        <c:axId val="475298048"/>
+        <c:axId val="475300224"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="486263808"/>
+        <c:axId val="475298048"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2237,14 +2240,13 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="486269696"/>
+        <c:crossAx val="475300224"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2252,7 +2254,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="486269696"/>
+        <c:axId val="475300224"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2275,21 +2277,19 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="486263808"/>
+        <c:crossAx val="475298048"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -2318,9 +2318,54 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1200"/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="1200"/>
+              <a:t>Approximation of Var(I/D) </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" sz="1200" b="0"/>
+              <a:t>~ E(I)^2</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" sz="1200" b="0" baseline="0"/>
+              <a:t>/E(D)^2</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US" sz="1200" b="0"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.20035033999483517"/>
+          <c:y val="2.7777777777777776E-2"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+    </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
-      <c:layout/>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.13683329925144458"/>
+          <c:y val="0.17218759113444151"/>
+          <c:w val="0.55546909226349173"/>
+          <c:h val="0.70649278215223099"/>
+        </c:manualLayout>
+      </c:layout>
       <c:lineChart>
         <c:grouping val="standard"/>
         <c:varyColors val="0"/>
@@ -2338,6 +2383,27 @@
               </c:strCache>
             </c:strRef>
           </c:tx>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Analysis Sq. Expected'!$F$5:$F$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.6</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
           <c:val>
             <c:numRef>
               <c:f>'Analysis Sq. Expected'!$G$5:$G$8</c:f>
@@ -2355,6 +2421,64 @@
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>2.1386343718198555E-5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Analysis Sq. Expected'!$H$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>E(D)^2</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Analysis Sq. Expected'!$F$5:$F$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.6</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Analysis Sq. Expected'!$H$5:$H$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>146.95265377781405</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>16701.563394369772</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>171978.35854417499</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1829557.8228784564</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2371,43 +2495,118 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="482452992"/>
-        <c:axId val="482474240"/>
+        <c:axId val="475513216"/>
+        <c:axId val="475515520"/>
       </c:lineChart>
       <c:lineChart>
         <c:grouping val="standard"/>
         <c:varyColors val="0"/>
         <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
+          <c:idx val="2"/>
+          <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Analysis Sq. Expected'!$H$4</c:f>
+              <c:f>'Analysis Sq. Expected'!$O$4</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>E(D)^2</c:v>
+                  <c:v>Var(I/D) appr.</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
-          <c:val>
+          <c:cat>
             <c:numRef>
-              <c:f>'Analysis Sq. Expected'!$H$5:$H$8</c:f>
+              <c:f>'Analysis Sq. Expected'!$F$5:$F$8</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>146.95265377781405</c:v>
+                  <c:v>0.2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>16701.563394369772</c:v>
+                  <c:v>0.4</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>171978.35854417499</c:v>
+                  <c:v>0.5</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1829557.8228784564</c:v>
+                  <c:v>0.6</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Analysis Sq. Expected'!$O$5:$O$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>3.7232902549967021E-12</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.7317098145156996E-11</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.3733818216064671E-11</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.1689351082957994E-11</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Analysis Sq. Expected'!$Q$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Var(I/D) obs.</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="92D050"/>
+              </a:solidFill>
+              <a:prstDash val="dash"/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:spPr>
+              <a:ln>
+                <a:solidFill>
+                  <a:srgbClr val="92D050"/>
+                </a:solidFill>
+              </a:ln>
+            </c:spPr>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>'Analysis Sq. Expected'!$Q$5:$Q$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>6.8137450960310296E-12</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7.0194315988209423E-12</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.7811533070551939E-12</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.2675178487843402E-12</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2424,20 +2623,47 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="458852992"/>
-        <c:axId val="458850688"/>
+        <c:axId val="475523712"/>
+        <c:axId val="475521792"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="482452992"/>
+        <c:axId val="475513216"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>J as fraction of K</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="0.3548818730923689"/>
+              <c:y val="0.89256926217556143"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="482474240"/>
+        <c:crossAx val="475515520"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2445,47 +2671,124 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="482474240"/>
+        <c:axId val="475515520"/>
         <c:scaling>
+          <c:logBase val="10"/>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>log scale</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="3.0630630941037414E-2"/>
+              <c:y val="8.2829542140565759E-2"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="482452992"/>
+        <c:crossAx val="475513216"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="458850688"/>
+        <c:axId val="475521792"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="r"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr>
+                    <a:solidFill>
+                      <a:srgbClr val="92D050"/>
+                    </a:solidFill>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US">
+                    <a:solidFill>
+                      <a:srgbClr val="92D050"/>
+                    </a:solidFill>
+                  </a:rPr>
+                  <a:t>log scale</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="0.70907447085068209"/>
+              <c:y val="5.5051764362787983E-2"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="458852992"/>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="1">
+                <a:solidFill>
+                  <a:srgbClr val="92D050"/>
+                </a:solidFill>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="475523712"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="458852992"/>
+        <c:axId val="475523712"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="1"/>
         <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="458850688"/>
+        <c:crossAx val="475521792"/>
+        <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
@@ -2552,7 +2855,7 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="5.2111111111111122E-2"/>
+          <c:x val="0.15211111111111114"/>
           <c:y val="2.7777777777777776E-2"/>
         </c:manualLayout>
       </c:layout>
@@ -2560,7 +2863,17 @@
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
-      <c:layout/>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.14259951881014873"/>
+          <c:y val="0.16089129483814524"/>
+          <c:w val="0.66753915135608044"/>
+          <c:h val="0.71778907844852724"/>
+        </c:manualLayout>
+      </c:layout>
       <c:lineChart>
         <c:grouping val="standard"/>
         <c:varyColors val="0"/>
@@ -2578,6 +2891,27 @@
               </c:strCache>
             </c:strRef>
           </c:tx>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Analysis Sq. Expected'!$F$5:$F$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.6</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
           <c:val>
             <c:numRef>
               <c:f>'Analysis Sq. Expected'!$I$5:$I$8</c:f>
@@ -2615,6 +2949,27 @@
               </c:strCache>
             </c:strRef>
           </c:tx>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Analysis Sq. Expected'!$F$5:$F$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.6</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
           <c:val>
             <c:numRef>
               <c:f>'Analysis Sq. Expected'!$G$5:$G$8</c:f>
@@ -2652,6 +3007,27 @@
               </c:strCache>
             </c:strRef>
           </c:tx>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Analysis Sq. Expected'!$F$5:$F$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.6</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
           <c:val>
             <c:numRef>
               <c:f>'Analysis Sq. Expected'!$J$5:$J$8</c:f>
@@ -2689,6 +3065,31 @@
               </c:strCache>
             </c:strRef>
           </c:tx>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="7"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Analysis Sq. Expected'!$F$5:$F$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.6</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
           <c:val>
             <c:numRef>
               <c:f>'Analysis Sq. Expected'!$H$5:$H$8</c:f>
@@ -2722,20 +3123,47 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="508793216"/>
-        <c:axId val="508794752"/>
+        <c:axId val="475427584"/>
+        <c:axId val="475429504"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="508793216"/>
+        <c:axId val="475427584"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>J as fraction of K</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="0.37556364829396327"/>
+              <c:y val="0.88793963254593178"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="508794752"/>
+        <c:crossAx val="475429504"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2743,7 +3171,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="508794752"/>
+        <c:axId val="475429504"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -2751,11 +3179,37 @@
         <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>log scale</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="1.9444444444444445E-2"/>
+              <c:y val="7.7181393992417621E-2"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="508793216"/>
+        <c:crossAx val="475427584"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2916,14 +3370,14 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>123265</xdr:colOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>347383</xdr:colOff>
       <xdr:row>9</xdr:row>
       <xdr:rowOff>186017</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>246530</xdr:colOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>683559</xdr:colOff>
       <xdr:row>24</xdr:row>
       <xdr:rowOff>71717</xdr:rowOff>
     </xdr:to>
@@ -2993,7 +3447,7 @@
         <n v="0.6"/>
       </sharedItems>
     </cacheField>
-    <cacheField name="Pr(FV)" numFmtId="167">
+    <cacheField name="Pr(FV)" numFmtId="164">
       <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="2.9691631560160601E-7" maxValue="8.87977672060307E-6"/>
     </cacheField>
     <cacheField name="integral" numFmtId="0">
@@ -3002,10 +3456,10 @@
     <cacheField name="E(T)" numFmtId="0">
       <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="11.1575386961813" maxValue="1488.0032852869999"/>
     </cacheField>
-    <cacheField name="BIAS" numFmtId="167">
+    <cacheField name="BIAS" numFmtId="164">
       <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="-3.6427076917851736E-6" maxValue="4.9401527132162903E-6"/>
     </cacheField>
-    <cacheField name="BIAS2" numFmtId="173">
+    <cacheField name="BIAS2" numFmtId="165">
       <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="6.6880651761678302E-14" maxValue="2.4405108829898275E-11"/>
     </cacheField>
   </cacheFields>
@@ -3183,7 +3637,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable1" cacheId="12" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="4" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="4" indent="0" compact="0" compactData="0" gridDropZones="1" multipleFieldFilters="0" chartFormat="17">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable1" cacheId="2" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="4" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="4" indent="0" compact="0" compactData="0" gridDropZones="1" multipleFieldFilters="0" chartFormat="17">
   <location ref="A3:D9" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="6">
     <pivotField axis="axisRow" compact="0" outline="0" showAll="0">
@@ -3195,11 +3649,11 @@
         <item t="default"/>
       </items>
     </pivotField>
-    <pivotField dataField="1" compact="0" numFmtId="167" outline="0" showAll="0"/>
+    <pivotField dataField="1" compact="0" numFmtId="164" outline="0" showAll="0"/>
     <pivotField dataField="1" compact="0" outline="0" showAll="0"/>
     <pivotField dataField="1" compact="0" outline="0" showAll="0"/>
-    <pivotField compact="0" numFmtId="167" outline="0" showAll="0" defaultSubtotal="0"/>
-    <pivotField compact="0" numFmtId="173" outline="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField compact="0" numFmtId="164" outline="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField compact="0" numFmtId="165" outline="0" showAll="0" defaultSubtotal="0"/>
   </pivotFields>
   <rowFields count="1">
     <field x="0"/>
@@ -3279,7 +3733,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable1" cacheId="12" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="4" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="4" indent="0" compact="0" compactData="0" gridDropZones="1" multipleFieldFilters="0" chartFormat="18">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable1" cacheId="2" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="4" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="4" indent="0" compact="0" compactData="0" gridDropZones="1" multipleFieldFilters="0" chartFormat="18">
   <location ref="A3:D9" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="6">
     <pivotField axis="axisRow" compact="0" outline="0" showAll="0">
@@ -3291,11 +3745,11 @@
         <item t="default"/>
       </items>
     </pivotField>
-    <pivotField dataField="1" compact="0" numFmtId="167" outline="0" showAll="0"/>
+    <pivotField dataField="1" compact="0" numFmtId="164" outline="0" showAll="0"/>
     <pivotField compact="0" outline="0" showAll="0"/>
     <pivotField compact="0" outline="0" showAll="0"/>
-    <pivotField compact="0" numFmtId="167" outline="0" showAll="0" defaultSubtotal="0"/>
-    <pivotField dataField="1" compact="0" numFmtId="173" outline="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField compact="0" numFmtId="164" outline="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField dataField="1" compact="0" numFmtId="165" outline="0" showAll="0" defaultSubtotal="0"/>
   </pivotFields>
   <rowFields count="1">
     <field x="0"/>
@@ -3375,7 +3829,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable1" cacheId="12" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="4" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="4" indent="0" compact="0" compactData="0" gridDropZones="1" multipleFieldFilters="0" chartFormat="23">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable1" cacheId="2" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="4" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="4" indent="0" compact="0" compactData="0" gridDropZones="1" multipleFieldFilters="0" chartFormat="23">
   <location ref="A3:D9" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="6">
     <pivotField axis="axisRow" compact="0" outline="0" showAll="0">
@@ -3387,11 +3841,11 @@
         <item t="default"/>
       </items>
     </pivotField>
-    <pivotField dataField="1" compact="0" numFmtId="167" outline="0" showAll="0"/>
+    <pivotField dataField="1" compact="0" numFmtId="164" outline="0" showAll="0"/>
     <pivotField dataField="1" compact="0" outline="0" showAll="0"/>
     <pivotField dataField="1" compact="0" outline="0" showAll="0"/>
-    <pivotField compact="0" numFmtId="167" outline="0" showAll="0" defaultSubtotal="0"/>
-    <pivotField compact="0" numFmtId="173" outline="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField compact="0" numFmtId="164" outline="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField compact="0" numFmtId="165" outline="0" showAll="0" defaultSubtotal="0"/>
   </pivotFields>
   <rowFields count="1">
     <field x="0"/>
@@ -3432,7 +3886,7 @@
     <dataField name="Average of E0(T_A)" fld="3" subtotal="average" baseField="0" baseItem="0"/>
     <dataField name="Average of Pr(FV)" fld="1" subtotal="average" baseField="0" baseItem="0"/>
   </dataFields>
-  <chartFormats count="6">
+  <chartFormats count="3">
     <chartFormat chart="0" format="0" series="1">
       <pivotArea type="data" outline="0" fieldPosition="0">
         <references count="1">
@@ -3452,33 +3906,6 @@
       </pivotArea>
     </chartFormat>
     <chartFormat chart="0" format="2" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="17" format="2" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="17" format="3" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="2"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="17" format="4" series="1">
       <pivotArea type="data" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="1" selected="0">
@@ -5344,7 +5771,7 @@
         <v>1.3330913847253966E-6</v>
       </c>
       <c r="F6">
-        <f t="shared" ref="F6:F8" si="0">E6^2</f>
+        <f>E6^2</f>
         <v>1.7771326400290753E-12</v>
       </c>
       <c r="H6">
@@ -5358,7 +5785,7 @@
         <v>1.7771326400290753E-12</v>
       </c>
       <c r="K6">
-        <f t="shared" ref="K6:K8" si="1">I6+J6</f>
+        <f>I6+J6</f>
         <v>8.7965642388500176E-12</v>
       </c>
       <c r="L6">
@@ -5387,7 +5814,7 @@
         <v>-2.6668066511871758E-7</v>
       </c>
       <c r="F7">
-        <f t="shared" si="0"/>
+        <f>E7^2</f>
         <v>7.1118577148161585E-14</v>
       </c>
       <c r="H7">
@@ -5401,7 +5828,7 @@
         <v>7.1118577148161585E-14</v>
       </c>
       <c r="K7">
-        <f t="shared" si="1"/>
+        <f>I7+J7</f>
         <v>1.8522718842033553E-12</v>
       </c>
       <c r="L7">
@@ -5430,7 +5857,7 @@
         <v>-5.6420798788619202E-7</v>
       </c>
       <c r="F8">
-        <f t="shared" si="0"/>
+        <f>E8^2</f>
         <v>3.1833065359458539E-13</v>
       </c>
       <c r="H8">
@@ -5444,7 +5871,7 @@
         <v>3.1833065359458539E-13</v>
       </c>
       <c r="K8">
-        <f t="shared" si="1"/>
+        <f>I8+J8</f>
         <v>1.5858485023789255E-12</v>
       </c>
       <c r="L8">
@@ -5477,10 +5904,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A3:P9"/>
+  <dimension ref="A3:Q9"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="N5" sqref="N5"/>
+      <selection activeCell="I29" sqref="I29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5498,17 +5925,18 @@
     <col min="13" max="14" width="12.85546875" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="12.28515625" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="12.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B3" s="3" t="s">
         <v>27</v>
       </c>
       <c r="O3" s="9" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>4</v>
       </c>
@@ -5546,19 +5974,22 @@
         <v>44</v>
       </c>
       <c r="M4" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="N4" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="N4" s="8" t="s">
-        <v>48</v>
-      </c>
       <c r="O4" t="s">
+        <v>50</v>
+      </c>
+      <c r="P4" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="P4" s="8" t="s">
-        <v>46</v>
+      <c r="Q4" s="8" t="s">
+        <v>49</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>0.2</v>
       </c>
@@ -5604,11 +6035,11 @@
         <v>4.6091224141232489E-3</v>
       </c>
       <c r="M5" s="8">
-        <f>LOG10(K5)</f>
+        <f t="shared" ref="M5:N8" si="0">LOG10(K5)</f>
         <v>0.25737204714106066</v>
       </c>
       <c r="N5" s="8">
-        <f t="shared" ref="N5:N8" si="0">LOG10(L5)</f>
+        <f t="shared" si="0"/>
         <v>-2.3363817572536014</v>
       </c>
       <c r="O5" s="10">
@@ -5619,8 +6050,12 @@
         <f>LOG10(O5)</f>
         <v>-11.429073106346788</v>
       </c>
+      <c r="Q5">
+        <f>GETPIVOTDATA("Variance of Pr(FV)",'Analysis Variance &amp; Bias'!$A$3,"buffer_size_activation",'Analysis Variance &amp; Bias'!$A5)</f>
+        <v>6.8137450960310296E-12</v>
+      </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>0.4</v>
       </c>
@@ -5638,15 +6073,15 @@
         <v>5.2265761398029009E-6</v>
       </c>
       <c r="F6">
-        <f t="shared" ref="F6:F9" si="1">A6</f>
+        <f>A6</f>
         <v>0.4</v>
       </c>
       <c r="G6">
-        <f t="shared" ref="G6:G8" si="2">GETPIVOTDATA("Average of Integral",$A$3,"buffer_size_activation",$A6)^2</f>
+        <f>GETPIVOTDATA("Average of Integral",$A$3,"buffer_size_activation",$A6)^2</f>
         <v>4.5623824642156047E-7</v>
       </c>
       <c r="H6">
-        <f t="shared" ref="H6:H8" si="3">GETPIVOTDATA("Average of E0(T_A)",$A$3,"buffer_size_activation",$A6)^2</f>
+        <f>GETPIVOTDATA("Average of E0(T_A)",$A$3,"buffer_size_activation",$A6)^2</f>
         <v>16701.563394369772</v>
       </c>
       <c r="I6">
@@ -5658,15 +6093,15 @@
         <v>98.31375089479377</v>
       </c>
       <c r="K6" s="7">
-        <f t="shared" ref="K6:L8" si="4">I6/G6</f>
+        <f t="shared" ref="K6:L8" si="1">I6/G6</f>
         <v>0.26910668420757528</v>
       </c>
       <c r="L6" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="1"/>
         <v>5.8864998786841783E-3</v>
       </c>
       <c r="M6" s="8">
-        <f t="shared" ref="M6:M8" si="5">LOG10(K6)</f>
+        <f t="shared" si="0"/>
         <v>-0.57007551487684927</v>
       </c>
       <c r="N6" s="8">
@@ -5674,15 +6109,19 @@
         <v>-2.2301428605958851</v>
       </c>
       <c r="O6">
-        <f t="shared" ref="O6:O9" si="6">G6/H6</f>
+        <f>G6/H6</f>
         <v>2.7317098145156996E-11</v>
       </c>
       <c r="P6" s="8">
-        <f t="shared" ref="P6:P9" si="7">LOG10(O6)</f>
+        <f>LOG10(O6)</f>
         <v>-10.563565436999326</v>
       </c>
+      <c r="Q6">
+        <f>GETPIVOTDATA("Variance of Pr(FV)",'Analysis Variance &amp; Bias'!$A$3,"buffer_size_activation",'Analysis Variance &amp; Bias'!$A6)</f>
+        <v>7.0194315988209423E-12</v>
+      </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>0.5</v>
       </c>
@@ -5700,15 +6139,15 @@
         <v>3.7059166499079106E-6</v>
       </c>
       <c r="F7">
-        <f t="shared" si="1"/>
+        <f>A7</f>
         <v>0.5</v>
       </c>
       <c r="G7">
-        <f t="shared" si="2"/>
+        <f>GETPIVOTDATA("Average of Integral",$A$3,"buffer_size_activation",$A7)^2</f>
         <v>2.3619195133428918E-6</v>
       </c>
       <c r="H7">
-        <f t="shared" si="3"/>
+        <f>GETPIVOTDATA("Average of E0(T_A)",$A$3,"buffer_size_activation",$A7)^2</f>
         <v>171978.35854417499</v>
       </c>
       <c r="I7">
@@ -5720,15 +6159,15 @@
         <v>343.55928760088977</v>
       </c>
       <c r="K7" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="1"/>
         <v>0.15290509154027679</v>
       </c>
       <c r="L7" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="1"/>
         <v>1.9976890726785363E-3</v>
       </c>
       <c r="M7" s="8">
-        <f t="shared" si="5"/>
+        <f t="shared" si="0"/>
         <v>-0.81557805290664209</v>
       </c>
       <c r="N7" s="8">
@@ -5736,15 +6175,19 @@
         <v>-2.6994721059639022</v>
       </c>
       <c r="O7">
-        <f t="shared" si="6"/>
+        <f>G7/H7</f>
         <v>1.3733818216064671E-11</v>
       </c>
       <c r="P7" s="8">
-        <f t="shared" si="7"/>
+        <f>LOG10(O7)</f>
         <v>-10.862208705324113</v>
       </c>
+      <c r="Q7">
+        <f>GETPIVOTDATA("Variance of Pr(FV)",'Analysis Variance &amp; Bias'!$A$3,"buffer_size_activation",'Analysis Variance &amp; Bias'!$A7)</f>
+        <v>1.7811533070551939E-12</v>
+      </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>0.6</v>
       </c>
@@ -5762,15 +6205,15 @@
         <v>3.4189693012599567E-6</v>
       </c>
       <c r="F8">
-        <f t="shared" si="1"/>
+        <f>A8</f>
         <v>0.6</v>
       </c>
       <c r="G8">
-        <f t="shared" si="2"/>
+        <f>GETPIVOTDATA("Average of Integral",$A$3,"buffer_size_activation",$A8)^2</f>
         <v>2.1386343718198555E-5</v>
       </c>
       <c r="H8">
-        <f t="shared" si="3"/>
+        <f>GETPIVOTDATA("Average of E0(T_A)",$A$3,"buffer_size_activation",$A8)^2</f>
         <v>1829557.8228784564</v>
       </c>
       <c r="I8">
@@ -5782,15 +6225,15 @@
         <v>7764.2073899704219</v>
       </c>
       <c r="K8" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="1"/>
         <v>0.14531680568018154</v>
       </c>
       <c r="L8" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="1"/>
         <v>4.2437616854081924E-3</v>
       </c>
       <c r="M8" s="8">
-        <f t="shared" si="5"/>
+        <f t="shared" si="0"/>
         <v>-0.83768415726347834</v>
       </c>
       <c r="N8" s="8">
@@ -5798,15 +6241,19 @@
         <v>-2.3722490125223898</v>
       </c>
       <c r="O8">
-        <f t="shared" si="6"/>
+        <f>G8/H8</f>
         <v>1.1689351082957994E-11</v>
       </c>
       <c r="P8" s="8">
-        <f t="shared" si="7"/>
+        <f>LOG10(O8)</f>
         <v>-10.932209597385025</v>
       </c>
+      <c r="Q8">
+        <f>GETPIVOTDATA("Variance of Pr(FV)",'Analysis Variance &amp; Bias'!$A$3,"buffer_size_activation",'Analysis Variance &amp; Bias'!$A8)</f>
+        <v>1.2675178487843402E-12</v>
+      </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>24</v>
       </c>
